--- a/contratos/contratos-9-2010.xlsx
+++ b/contratos/contratos-9-2010.xlsx
@@ -604,7 +604,7 @@
     <t>IGLESIAS JOSE FABIAN</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>SYLVESTRE CARLOS OMAR</t>
@@ -622,13 +622,13 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RETAMAR JOSE LUIS</t>
@@ -970,430 +970,430 @@
     <t>241</t>
   </si>
   <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>21.800,00</t>
-  </si>
-  <si>
-    <t>272,96</t>
-  </si>
-  <si>
-    <t>354,00</t>
-  </si>
-  <si>
-    <t>137,00</t>
-  </si>
-  <si>
-    <t>53.914,29</t>
-  </si>
-  <si>
-    <t>5.019,30</t>
-  </si>
-  <si>
-    <t>482,01</t>
-  </si>
-  <si>
-    <t>6.671,15</t>
-  </si>
-  <si>
-    <t>7.489,76</t>
-  </si>
-  <si>
-    <t>206,40</t>
-  </si>
-  <si>
-    <t>259,80</t>
-  </si>
-  <si>
-    <t>7.358,98</t>
-  </si>
-  <si>
-    <t>427,00</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>631,50</t>
-  </si>
-  <si>
-    <t>43,04</t>
-  </si>
-  <si>
-    <t>3.468,50</t>
-  </si>
-  <si>
-    <t>10.310,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>11.443,00</t>
-  </si>
-  <si>
-    <t>6.538,76</t>
-  </si>
-  <si>
-    <t>2.393,00</t>
-  </si>
-  <si>
-    <t>101,70</t>
-  </si>
-  <si>
-    <t>38.154,40</t>
-  </si>
-  <si>
-    <t>23.560,00</t>
-  </si>
-  <si>
-    <t>4.289,68</t>
-  </si>
-  <si>
-    <t>9.288,00</t>
-  </si>
-  <si>
-    <t>2.435,00</t>
-  </si>
-  <si>
-    <t>1.138,00</t>
-  </si>
-  <si>
-    <t>18.340,00</t>
-  </si>
-  <si>
-    <t>17.305,90</t>
-  </si>
-  <si>
-    <t>376,06</t>
-  </si>
-  <si>
-    <t>49,50</t>
-  </si>
-  <si>
-    <t>549,50</t>
-  </si>
-  <si>
-    <t>2.178,90</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>725,86</t>
-  </si>
-  <si>
-    <t>1.033,00</t>
-  </si>
-  <si>
-    <t>5.826,72</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>2.313,22</t>
-  </si>
-  <si>
-    <t>2.368,00</t>
-  </si>
-  <si>
-    <t>7.680,00</t>
-  </si>
-  <si>
-    <t>222,83</t>
-  </si>
-  <si>
-    <t>98,00</t>
-  </si>
-  <si>
-    <t>22.208,00</t>
-  </si>
-  <si>
-    <t>3.723,00</t>
-  </si>
-  <si>
-    <t>673,60</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>6.816,00</t>
-  </si>
-  <si>
-    <t>1.180,00</t>
-  </si>
-  <si>
-    <t>2.192,75</t>
-  </si>
-  <si>
-    <t>1.705,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>4.277,75</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>445,00</t>
-  </si>
-  <si>
-    <t>913,40</t>
-  </si>
-  <si>
-    <t>11.850,80</t>
-  </si>
-  <si>
-    <t>2,59</t>
-  </si>
-  <si>
-    <t>1.867,80</t>
-  </si>
-  <si>
-    <t>3.828,90</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>1.969,00</t>
-  </si>
-  <si>
-    <t>3.092,60</t>
-  </si>
-  <si>
-    <t>37,00</t>
-  </si>
-  <si>
-    <t>282,40</t>
-  </si>
-  <si>
-    <t>373,00</t>
-  </si>
-  <si>
-    <t>1.055,40</t>
-  </si>
-  <si>
-    <t>105,00</t>
-  </si>
-  <si>
-    <t>2,18</t>
-  </si>
-  <si>
-    <t>1.848,75</t>
-  </si>
-  <si>
-    <t>0,20</t>
-  </si>
-  <si>
-    <t>100.170,00</t>
-  </si>
-  <si>
-    <t>483,50</t>
-  </si>
-  <si>
-    <t>5,96</t>
-  </si>
-  <si>
-    <t>0,03</t>
-  </si>
-  <si>
-    <t>2,40</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.848,80</t>
-  </si>
-  <si>
-    <t>39,20</t>
-  </si>
-  <si>
-    <t>71,50</t>
-  </si>
-  <si>
-    <t>7,65</t>
-  </si>
-  <si>
-    <t>1.702,00</t>
-  </si>
-  <si>
-    <t>129,31</t>
-  </si>
-  <si>
-    <t>77,70</t>
-  </si>
-  <si>
-    <t>1.260,22</t>
-  </si>
-  <si>
-    <t>1.870,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>1.858,00</t>
-  </si>
-  <si>
-    <t>564,00</t>
-  </si>
-  <si>
-    <t>5.972,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>1.928,02</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>331,50</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>5.776,55</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>6.110,20</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>8.734,97</t>
-  </si>
-  <si>
-    <t>456,00</t>
-  </si>
-  <si>
-    <t>167,00</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>5.250,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>602,57</t>
-  </si>
-  <si>
-    <t>221,00</t>
-  </si>
-  <si>
-    <t>156,00</t>
-  </si>
-  <si>
-    <t>2.280,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>46,60</t>
-  </si>
-  <si>
-    <t>68,60</t>
-  </si>
-  <si>
-    <t>46,21</t>
-  </si>
-  <si>
-    <t>58.345,45</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>1.983,60</t>
-  </si>
-  <si>
-    <t>17.652,90</t>
-  </si>
-  <si>
-    <t>1.672,50</t>
-  </si>
-  <si>
-    <t>80,96</t>
-  </si>
-  <si>
-    <t>0,61</t>
-  </si>
-  <si>
-    <t>266,70</t>
-  </si>
-  <si>
-    <t>2.557,12</t>
-  </si>
-  <si>
-    <t>1.624,43</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>1.265.762,32</t>
-  </si>
-  <si>
-    <t>289.264,79</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>64.600,00</t>
-  </si>
-  <si>
-    <t>860,00</t>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>21800.00</t>
+  </si>
+  <si>
+    <t>272.96</t>
+  </si>
+  <si>
+    <t>354.00</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>53914.29</t>
+  </si>
+  <si>
+    <t>5019.30</t>
+  </si>
+  <si>
+    <t>482.01</t>
+  </si>
+  <si>
+    <t>6671.15</t>
+  </si>
+  <si>
+    <t>7489.76</t>
+  </si>
+  <si>
+    <t>206.40</t>
+  </si>
+  <si>
+    <t>259.80</t>
+  </si>
+  <si>
+    <t>7358.98</t>
+  </si>
+  <si>
+    <t>427.00</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>631.50</t>
+  </si>
+  <si>
+    <t>43.04</t>
+  </si>
+  <si>
+    <t>3468.50</t>
+  </si>
+  <si>
+    <t>10310.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>11443.00</t>
+  </si>
+  <si>
+    <t>6538.76</t>
+  </si>
+  <si>
+    <t>2393.00</t>
+  </si>
+  <si>
+    <t>101.70</t>
+  </si>
+  <si>
+    <t>38154.40</t>
+  </si>
+  <si>
+    <t>23560.00</t>
+  </si>
+  <si>
+    <t>4289.68</t>
+  </si>
+  <si>
+    <t>9288.00</t>
+  </si>
+  <si>
+    <t>2435.00</t>
+  </si>
+  <si>
+    <t>1138.00</t>
+  </si>
+  <si>
+    <t>18340.00</t>
+  </si>
+  <si>
+    <t>17305.90</t>
+  </si>
+  <si>
+    <t>376.06</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>549.50</t>
+  </si>
+  <si>
+    <t>2178.90</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>725.86</t>
+  </si>
+  <si>
+    <t>1033.00</t>
+  </si>
+  <si>
+    <t>5826.72</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>2313.22</t>
+  </si>
+  <si>
+    <t>2368.00</t>
+  </si>
+  <si>
+    <t>7680.00</t>
+  </si>
+  <si>
+    <t>222.83</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>22208.00</t>
+  </si>
+  <si>
+    <t>3723.00</t>
+  </si>
+  <si>
+    <t>673.60</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>6816.00</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>2192.75</t>
+  </si>
+  <si>
+    <t>1705.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>4277.75</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>445.00</t>
+  </si>
+  <si>
+    <t>913.40</t>
+  </si>
+  <si>
+    <t>11850.80</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>1867.80</t>
+  </si>
+  <si>
+    <t>3828.90</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>1969.00</t>
+  </si>
+  <si>
+    <t>3092.60</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>282.40</t>
+  </si>
+  <si>
+    <t>373.00</t>
+  </si>
+  <si>
+    <t>1055.40</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>1848.75</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>100170.00</t>
+  </si>
+  <si>
+    <t>483.50</t>
+  </si>
+  <si>
+    <t>5.96</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1848.80</t>
+  </si>
+  <si>
+    <t>39.20</t>
+  </si>
+  <si>
+    <t>71.50</t>
+  </si>
+  <si>
+    <t>7.65</t>
+  </si>
+  <si>
+    <t>1702.00</t>
+  </si>
+  <si>
+    <t>129.31</t>
+  </si>
+  <si>
+    <t>77.70</t>
+  </si>
+  <si>
+    <t>1260.22</t>
+  </si>
+  <si>
+    <t>1870.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>1858.00</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>5972.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>1928.02</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>331.50</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>5776.55</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>6110.20</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>8734.97</t>
+  </si>
+  <si>
+    <t>456.00</t>
+  </si>
+  <si>
+    <t>167.00</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>5250.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>602.57</t>
+  </si>
+  <si>
+    <t>221.00</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>2280.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>46.60</t>
+  </si>
+  <si>
+    <t>68.60</t>
+  </si>
+  <si>
+    <t>46.21</t>
+  </si>
+  <si>
+    <t>58345.45</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>1983.60</t>
+  </si>
+  <si>
+    <t>17652.90</t>
+  </si>
+  <si>
+    <t>1672.50</t>
+  </si>
+  <si>
+    <t>80.96</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>266.70</t>
+  </si>
+  <si>
+    <t>2557.12</t>
+  </si>
+  <si>
+    <t>1624.43</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>1265762.32</t>
+  </si>
+  <si>
+    <t>289264.79</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>64600.00</t>
+  </si>
+  <si>
+    <t>860.00</t>
   </si>
 </sst>
 </file>
